--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>899114.7787320532</v>
+        <v>896245.0197692155</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587979</v>
+        <v>8444421.381715728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11717308.78158979</v>
+        <v>11717290.05022415</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>66.23188728787687</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>116.8224079003184</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>268.4801426401958</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.67884460201121</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903365</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>97.64711324990954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>235.7901709602395</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>167.2286752376184</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.20584125154435</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>120.6353666620207</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>2.639429415770185e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C16" t="n">
-        <v>1.487860919361339</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520956</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143178</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>73.79299727940813</v>
       </c>
       <c r="W19" t="n">
-        <v>20.84901245550037</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249712</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.043187116398331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>113.510364625081</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,19 +2530,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3228488990462</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.58054355134</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284788512</v>
+        <v>7.081331206015363</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.1015618809472</v>
+        <v>88.79820333299199</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064817</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392686</v>
+        <v>84.97321768248374</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766894</v>
+        <v>2.334151821525936</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044363</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4353940427187</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.88542329426744</v>
       </c>
       <c r="S28" t="n">
-        <v>4.025844647640369</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2798,19 +2798,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722637</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787744</v>
+        <v>7.081331206015363</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094675</v>
+        <v>88.79820333299199</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392676</v>
+        <v>84.97321768248374</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766524</v>
+        <v>2.334151821525936</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044361</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>144.435394042719</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898771</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125471</v>
+        <v>70.88542329426744</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>121.5336667623496</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787744</v>
+        <v>7.081331206015363</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094675</v>
+        <v>88.79820333299199</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392676</v>
+        <v>84.97321768248374</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766524</v>
+        <v>2.334151821525936</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044361</v>
+        <v>119.2510505515019</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>158.6429287297479</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.28550591274598</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125471</v>
+        <v>70.88542329426744</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>23.57530571412332</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>131.6267707433219</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.132302579345541</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G41" t="n">
         <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.6125906008192</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561445</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.425587695216</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3907690366106</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
         <v>225.7492064608734</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>102.1854574632514</v>
       </c>
       <c r="D43" t="n">
-        <v>23.57530571413232</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440878</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108318</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584588</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>105.3798824585326</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065347</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.883734065347</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>917.618035458597</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>531.8297828603527</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>120.8438780707451</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.483574129469</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C4" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D4" t="n">
-        <v>382.8183646524922</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.578376364604</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.578376364604</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D5" t="n">
-        <v>878.3126777578532</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E5" t="n">
-        <v>492.5244251596089</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.817244390238</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2496.639756704408</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674651</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404537</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404537</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1623.178216428725</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.73979454966869</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>65.73979454966869</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>65.73979454966869</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>65.73979454966869</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>65.73979454966869</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036444</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>513.840561024597</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931988</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931988</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931988</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931988</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931988</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.73979454966869</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>671.2536049084101</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>312.9879063016596</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>312.9879063016596</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>306.0424055524562</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1816.955293888755</v>
       </c>
       <c r="X8" t="n">
-        <v>2150.18672632798</v>
+        <v>1816.955293888755</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.18672632798</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W10" t="n">
-        <v>411.0644718652463</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X10" t="n">
-        <v>411.0644718652463</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,22 +5069,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5124,34 +5124,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>270.9417306852384</v>
+        <v>217.4149401676073</v>
       </c>
       <c r="C13" t="n">
-        <v>242.4509819463048</v>
+        <v>217.4149401676073</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4509819463048</v>
+        <v>217.4149401676073</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590082</v>
+        <v>619.8559841413771</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154781</v>
+        <v>399.063404997847</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,43 +5261,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2883.99303492678</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>3763.957685256235</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.6864413838516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>708.1835515663148</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>558.066912153979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,52 +5434,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838516</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X16" t="n">
-        <v>709.6864413838516</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.6864413838516</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>818.2062848686787</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522033</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3831.983903964021</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4226.758270321199</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4685.236472830187</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5595,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1023.336921276361</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C19" t="n">
-        <v>854.400738348454</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361182</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>556.3710053537251</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1674.827124689058</v>
+        <v>1089.419261293915</v>
       </c>
       <c r="W19" t="n">
-        <v>1653.767516148148</v>
+        <v>800.0020912569548</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.777965250131</v>
+        <v>572.0125403589375</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.985386106601</v>
+        <v>572.0125403589375</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,52 +5750,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>351.3014367967928</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866391</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139994</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969822</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196469</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5832,10 +5832,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410337</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>390.364075528698</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.138940987499</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894816</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.0653626991802</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839481</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074202</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972665</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3175.513123659584</v>
       </c>
       <c r="O23" t="n">
-        <v>3944.053400686433</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P23" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6066,7 +6066,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193594</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.3002584566049</v>
+        <v>210.2179684131227</v>
       </c>
       <c r="C25" t="n">
-        <v>390.3640755286979</v>
+        <v>210.2179684131227</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>210.2179684131227</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1262.766876704039</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1008.082388498152</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W25" t="n">
-        <v>1008.082388498152</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X25" t="n">
-        <v>780.092837600135</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.3002584566049</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.482124425631</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878469</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280225</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906177</v>
+        <v>803.7890349610739</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760582</v>
+        <v>389.620392314182</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696541</v>
+        <v>101.2929105653985</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J26" t="n">
-        <v>357.1047532886055</v>
+        <v>358.2021945153786</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030659</v>
+        <v>804.7014151994173</v>
       </c>
       <c r="L26" t="n">
-        <v>1416.942247160209</v>
+        <v>1395.524942477766</v>
       </c>
       <c r="M26" t="n">
-        <v>2103.702515626562</v>
+        <v>2084.599393525241</v>
       </c>
       <c r="N26" t="n">
-        <v>2806.18909160129</v>
+        <v>2789.437597974656</v>
       </c>
       <c r="O26" t="n">
-        <v>3456.191983872744</v>
+        <v>3661.180432342249</v>
       </c>
       <c r="P26" t="n">
-        <v>3976.453413219072</v>
+        <v>4183.337072001696</v>
       </c>
       <c r="Q26" t="n">
-        <v>4529.167173995945</v>
+        <v>4527.282216042446</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.05803957324</v>
+        <v>4617.30738318532</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223258</v>
+        <v>4415.286052936301</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.51859734033</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996759</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465565</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489753</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.7138223180872</v>
+        <v>947.3682853256663</v>
       </c>
       <c r="C27" t="n">
-        <v>773.2607930369602</v>
+        <v>772.9152560445393</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757089</v>
+        <v>623.9808463832881</v>
       </c>
       <c r="E27" t="n">
-        <v>465.0889283702535</v>
+        <v>464.7433913778325</v>
       </c>
       <c r="F27" t="n">
-        <v>318.5543703971385</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170332</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585044038</v>
+        <v>96.49777987399507</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J27" t="n">
-        <v>94.16119234461523</v>
+        <v>232.595807617468</v>
       </c>
       <c r="K27" t="n">
-        <v>407.8202819091921</v>
+        <v>232.595807617468</v>
       </c>
       <c r="L27" t="n">
-        <v>407.8202819091921</v>
+        <v>702.2027937520302</v>
       </c>
       <c r="M27" t="n">
-        <v>973.3996418451172</v>
+        <v>1269.568864812766</v>
       </c>
       <c r="N27" t="n">
-        <v>1568.356849420384</v>
+        <v>1866.360072439792</v>
       </c>
       <c r="O27" t="n">
-        <v>1914.531950260449</v>
+        <v>1911.338811047603</v>
       </c>
       <c r="P27" t="n">
-        <v>2314.1898856064</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q27" t="n">
-        <v>2531.431434984087</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>875.3205073037552</v>
+        <v>408.9705711061372</v>
       </c>
       <c r="C28" t="n">
-        <v>706.3843243758485</v>
+        <v>240.0343881782303</v>
       </c>
       <c r="D28" t="n">
-        <v>556.2676849635127</v>
+        <v>240.0343881782303</v>
       </c>
       <c r="E28" t="n">
-        <v>408.3545913811195</v>
+        <v>94.14005076134262</v>
       </c>
       <c r="F28" t="n">
-        <v>261.4646438832091</v>
+        <v>94.14005076134262</v>
       </c>
       <c r="G28" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134262</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134262</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603202</v>
+        <v>167.3552671573048</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532461</v>
+        <v>417.5071952352233</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371871</v>
+        <v>793.1419734834342</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649979</v>
+        <v>1199.585302358419</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.00496740891</v>
+        <v>1601.798933740118</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740128</v>
+        <v>1957.292026969323</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185965</v>
+        <v>2237.957099327612</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396746</v>
+        <v>2348.839967262882</v>
       </c>
       <c r="R28" t="n">
-        <v>2343.000352396746</v>
+        <v>2277.238529591905</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.933842651654</v>
+        <v>2092.617956886292</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.933842651654</v>
+        <v>1872.583577444213</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.85276041839</v>
+        <v>1583.502824220772</v>
       </c>
       <c r="V28" t="n">
-        <v>1795.168272212503</v>
+        <v>1328.818336014885</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.751102175542</v>
+        <v>1039.401165977924</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.761551277525</v>
+        <v>811.4116150799071</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.968972133995</v>
+        <v>590.6190359363769</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.482124425632</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.51960748522</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.25390887847</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906161</v>
+        <v>803.7890349610739</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760572</v>
+        <v>389.620392314182</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696534</v>
+        <v>101.2929105653985</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J29" t="n">
-        <v>357.1047532886071</v>
+        <v>358.2021945153786</v>
       </c>
       <c r="K29" t="n">
-        <v>1103.449620215744</v>
+        <v>804.7014151994173</v>
       </c>
       <c r="L29" t="n">
-        <v>1692.193343587749</v>
+        <v>1395.524942477766</v>
       </c>
       <c r="M29" t="n">
-        <v>2378.953612054107</v>
+        <v>2084.599393525241</v>
       </c>
       <c r="N29" t="n">
-        <v>3081.440188028838</v>
+        <v>2789.437597974656</v>
       </c>
       <c r="O29" t="n">
-        <v>3731.443080300296</v>
+        <v>3516.047847263196</v>
       </c>
       <c r="P29" t="n">
-        <v>4251.704509646627</v>
+        <v>4038.204486922643</v>
       </c>
       <c r="Q29" t="n">
-        <v>4594.226429670196</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.05803957324</v>
+        <v>4617.30738318532</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223259</v>
+        <v>4415.286052936301</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.51859734033</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.45570999676</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726645</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465566</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489754</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256663</v>
       </c>
       <c r="C30" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445393</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832881</v>
       </c>
       <c r="E30" t="n">
-        <v>465.088928370253</v>
+        <v>464.7433913778325</v>
       </c>
       <c r="F30" t="n">
-        <v>318.554370397138</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170327</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585044</v>
+        <v>96.49777987399507</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J30" t="n">
-        <v>231.9507289421378</v>
+        <v>232.595807617468</v>
       </c>
       <c r="K30" t="n">
-        <v>409.6167321812575</v>
+        <v>547.3935737180004</v>
       </c>
       <c r="L30" t="n">
-        <v>877.6926271918172</v>
+        <v>1017.000559852563</v>
       </c>
       <c r="M30" t="n">
-        <v>1443.271987127745</v>
+        <v>1584.366630913298</v>
       </c>
       <c r="N30" t="n">
-        <v>2038.229194703014</v>
+        <v>2006.757401103606</v>
       </c>
       <c r="O30" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="P30" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.1084769443096</v>
+        <v>408.9705711061372</v>
       </c>
       <c r="C31" t="n">
-        <v>620.1722940164027</v>
+        <v>240.0343881782303</v>
       </c>
       <c r="D31" t="n">
-        <v>470.0556546040669</v>
+        <v>240.0343881782303</v>
       </c>
       <c r="E31" t="n">
-        <v>322.1425610216738</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="F31" t="n">
-        <v>322.1425610216738</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="G31" t="n">
-        <v>322.1425610216738</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="H31" t="n">
-        <v>179.4762707375321</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461523</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603208</v>
+        <v>167.3552671573048</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532477</v>
+        <v>417.5071952352233</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371899</v>
+        <v>793.1419734834342</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358419</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408916</v>
+        <v>1601.798933740118</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740135</v>
+        <v>1957.292026969322</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185973</v>
+        <v>2237.957099327612</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396755</v>
+        <v>2348.839967262882</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.127700961144</v>
+        <v>2277.238529591904</v>
       </c>
       <c r="S31" t="n">
-        <v>2086.402009616873</v>
+        <v>2092.617956886292</v>
       </c>
       <c r="T31" t="n">
-        <v>2086.402009616873</v>
+        <v>1872.583577444213</v>
       </c>
       <c r="U31" t="n">
-        <v>1963.640730058944</v>
+        <v>1583.502824220772</v>
       </c>
       <c r="V31" t="n">
-        <v>1708.956241853057</v>
+        <v>1328.818336014885</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.539071816097</v>
+        <v>1039.401165977924</v>
       </c>
       <c r="X31" t="n">
-        <v>1191.549520918079</v>
+        <v>811.4116150799071</v>
       </c>
       <c r="Y31" t="n">
-        <v>970.7569417745493</v>
+        <v>590.6190359363769</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.482124425629</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878467</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280223</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906154</v>
+        <v>803.7890349610743</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760567</v>
+        <v>389.6203923141826</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696533</v>
+        <v>101.2929105653985</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886071</v>
+        <v>358.2021945153786</v>
       </c>
       <c r="K32" t="n">
-        <v>801.92750830307</v>
+        <v>804.7014151994173</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.671231675075</v>
+        <v>1395.524942477766</v>
       </c>
       <c r="M32" t="n">
-        <v>2077.431500141432</v>
+        <v>2084.599393525241</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028836</v>
+        <v>2789.437597974656</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300294</v>
+        <v>3726.239688016501</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646625</v>
+        <v>4248.396327675949</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670194</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.05961723076</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573237</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223255</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340328</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996757</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726643</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465563</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489751</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7138223180867</v>
+        <v>947.3682853256663</v>
       </c>
       <c r="C33" t="n">
-        <v>773.2607930369597</v>
+        <v>772.9152560445393</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757085</v>
+        <v>623.9808463832881</v>
       </c>
       <c r="E33" t="n">
-        <v>465.088928370253</v>
+        <v>464.7433913778325</v>
       </c>
       <c r="F33" t="n">
-        <v>318.554370397138</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170327</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585043995</v>
+        <v>96.49777987399507</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J33" t="n">
-        <v>231.9507289421377</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="K33" t="n">
-        <v>545.6098185067162</v>
+        <v>408.937816861875</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6098185067162</v>
+        <v>878.5448029964372</v>
       </c>
       <c r="M33" t="n">
-        <v>1014.766476655379</v>
+        <v>878.5448029964372</v>
       </c>
       <c r="N33" t="n">
-        <v>1609.723684230649</v>
+        <v>1475.336010623463</v>
       </c>
       <c r="O33" t="n">
-        <v>2131.773499638132</v>
+        <v>1999.063577777311</v>
       </c>
       <c r="P33" t="n">
-        <v>2531.431434984085</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q33" t="n">
-        <v>2531.431434984085</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044423</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308641</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.1026785652192</v>
+        <v>430.3736533810763</v>
       </c>
       <c r="C34" t="n">
-        <v>769.1026785652192</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="D34" t="n">
-        <v>618.9860391528834</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="E34" t="n">
-        <v>618.9860391528834</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="F34" t="n">
-        <v>472.096091654973</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="G34" t="n">
-        <v>304.7926401163791</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="H34" t="n">
-        <v>162.1263498322374</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461519</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603208</v>
+        <v>167.3552671573048</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532476</v>
+        <v>417.5071952352232</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371899</v>
+        <v>793.141973483434</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.585302358419</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408915</v>
+        <v>1601.798933740118</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740135</v>
+        <v>1957.292026969323</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185973</v>
+        <v>2237.957099327612</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396754</v>
+        <v>2348.839967262882</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.127700961144</v>
+        <v>2277.238529591905</v>
       </c>
       <c r="S34" t="n">
-        <v>2271.127700961144</v>
+        <v>2092.617956886292</v>
       </c>
       <c r="T34" t="n">
-        <v>2051.067549082878</v>
+        <v>1872.583577444213</v>
       </c>
       <c r="U34" t="n">
-        <v>1761.986466849614</v>
+        <v>1583.502824220772</v>
       </c>
       <c r="V34" t="n">
-        <v>1507.301978643728</v>
+        <v>1328.818336014886</v>
       </c>
       <c r="W34" t="n">
-        <v>1217.884808606767</v>
+        <v>1039.401165977925</v>
       </c>
       <c r="X34" t="n">
-        <v>989.8952577087493</v>
+        <v>811.4116150799074</v>
       </c>
       <c r="Y34" t="n">
-        <v>769.1026785652192</v>
+        <v>590.6190359363773</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
@@ -6935,16 +6935,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N35" t="n">
         <v>2971.58344915112</v>
@@ -7011,31 +7011,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034529</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L36" t="n">
-        <v>995.3340070173687</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="M36" t="n">
-        <v>1587.352361269496</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.352361269496</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149475996</v>
+        <v>562.9550599890987</v>
       </c>
       <c r="C37" t="n">
-        <v>471.2822748323237</v>
+        <v>394.0188770611918</v>
       </c>
       <c r="D37" t="n">
-        <v>471.2822748323237</v>
+        <v>394.0188770611918</v>
       </c>
       <c r="E37" t="n">
-        <v>323.3691812499305</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F37" t="n">
-        <v>176.4792337520201</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411608</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948584</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M37" t="n">
         <v>1239.450608139318</v>
@@ -7108,7 +7108,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
         <v>2311.699365782259</v>
@@ -7117,28 +7117,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294195</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062234</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856347</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213695</v>
+        <v>965.3961039628686</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778393</v>
+        <v>744.6035248193384</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
@@ -7181,19 +7181,19 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7254,19 +7254,19 @@
         <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668117</v>
+        <v>243.9627910411614</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.737405310563</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.755759562691</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.755759562691</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O39" t="n">
-        <v>2201.632234562885</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P39" t="n">
         <v>2323.251080710519</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.7911179897599</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>390.854935061853</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7382956495173</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7382956495173</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G40" t="n">
         <v>93.84834815160703</v>
@@ -7333,10 +7333,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
         <v>1239.450608139318</v>
@@ -7354,28 +7354,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.248557336355</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.078367075286</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2023.399584789668</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.323371104395</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.638882898508</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.221712861547</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X40" t="n">
-        <v>962.2321619635297</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.4395828199996</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831368</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890957</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284207</v>
@@ -7397,64 +7397,64 @@
         <v>1205.244725685963</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963552</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127618</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160774</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507223</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384066</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944184</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883225</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800335</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259476</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946827</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4515.534099052837</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746067</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402496</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132382</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871302</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.86103389549</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7473,43 +7473,43 @@
         <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>461.0359474815748</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.5013895084597</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683893</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034539</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668142</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L42" t="n">
-        <v>572.0050724668142</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M42" t="n">
-        <v>1164.023426718944</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N42" t="n">
-        <v>1786.119390118283</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.66756228444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710518</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476085</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>495.0957149476085</v>
+        <v>391.8780811463358</v>
       </c>
       <c r="D43" t="n">
-        <v>471.2822748323234</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E43" t="n">
-        <v>323.3691812499303</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F43" t="n">
-        <v>176.4792337520199</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G43" t="n">
-        <v>176.4792337520199</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520199</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411612</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117261</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948614</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139322</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.14647393103</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946061</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782266</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335702</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294204</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033134</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747516</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062243</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856356</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819396</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213784</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778482</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556142</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148071</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112164</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436023</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798343</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814816</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003546</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391034</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.8059044336479</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2713464605329</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160701</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1739543673658</v>
+        <v>729.446528798211</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.552441993918</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.150405548525</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.060135787812</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372036</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166503</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437069</v>
+        <v>495.0957149476</v>
       </c>
       <c r="C46" t="n">
-        <v>402.756278594529</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="D46" t="n">
-        <v>402.756278594529</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>402.756278594529</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>402.756278594529</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5601793094089</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074695</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834097</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958342</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752455</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174768</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739467</v>
+        <v>676.7441797778397</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783513</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714818</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>338.5992815305711</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>315.1679217109336</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>201.9664098701136</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>34.13957882094071</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.53663776704337</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>342.317075859813</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>79.70465870845351</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.253057640026</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>26.53637927791988</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>221.7367333452761</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>304.567789810782</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>75.13816255835377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>304.5677898107806</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>287.4531532182581</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.31264782906484</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.0409798470835</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>25.79859598454847</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C16" t="n">
-        <v>165.7589601792665</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>178.3446460444199</v>
       </c>
       <c r="W19" t="n">
-        <v>265.6739858810906</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.5414662356964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>32.92359802148822</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>8.888989306566653</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.998568603850417</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898798</v>
+        <v>84.28234746703991</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.15392492125513</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>178.852589783188</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.998568603850185</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>84.2823474670399</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>164.6566046485818</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>21.1890514521894</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>17.17642169624173</v>
+        <v>84.2823474670399</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>143.6715153845045</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>14.80719190324723</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>84.16945386597399</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>64.048449011738</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>65.06136363537644</v>
       </c>
       <c r="D43" t="n">
-        <v>125.04016730408</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919538</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194171</v>
+        <v>61.86693864009521</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997148.1876184228</v>
+        <v>997148.1876184227</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184227</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997148.1876184228</v>
+        <v>997148.1876184227</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993897.5171213043</v>
+        <v>993848.4227835778</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993897.5171213043</v>
+        <v>993848.4227835778</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>993897.5171213044</v>
+        <v>993848.4227835778</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>993171.039909581</v>
+        <v>993171.0399095807</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993171.0399095807</v>
+        <v>993171.039909581</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993024.1923753441</v>
+        <v>993171.0399095807</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="F2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="G2" t="n">
-        <v>416935.8762313325</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="H2" t="n">
         <v>416935.8762313323</v>
       </c>
       <c r="I2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="J2" t="n">
-        <v>422307.9771660657</v>
+        <v>422389.111116069</v>
       </c>
       <c r="K2" t="n">
-        <v>422307.9771660658</v>
+        <v>422389.1111160689</v>
       </c>
       <c r="L2" t="n">
-        <v>422307.9771660657</v>
+        <v>422389.1111160688</v>
       </c>
       <c r="M2" t="n">
-        <v>423508.5629872435</v>
+        <v>423508.5629872438</v>
       </c>
       <c r="N2" t="n">
-        <v>423508.5629872437</v>
+        <v>423508.5629872436</v>
       </c>
       <c r="O2" t="n">
         <v>423508.5629872436</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372534</v>
+        <v>423508.5629872436</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733718</v>
+        <v>336433.9864356442</v>
       </c>
       <c r="K3" t="n">
-        <v>3.641666808107402e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408571</v>
+        <v>160866.4619420242</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574949756</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,13 +26421,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499383</v>
@@ -26439,25 +26439,25 @@
         <v>25090.72367499383</v>
       </c>
       <c r="J4" t="n">
-        <v>9308.906536749881</v>
+        <v>9070.55650837044</v>
       </c>
       <c r="K4" t="n">
-        <v>9308.906536749448</v>
+        <v>9070.556508370439</v>
       </c>
       <c r="L4" t="n">
-        <v>9308.906536749513</v>
+        <v>9070.556508370435</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.97189485516</v>
+        <v>5781.971894855109</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855107</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894854752</v>
+        <v>5781.971894855162</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5781.9718948551</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493307</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
@@ -26506,10 +26506,10 @@
         <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-442844.5340269367</v>
       </c>
       <c r="C6" t="n">
+        <v>147123.3451876078</v>
+      </c>
+      <c r="D6" t="n">
         <v>147123.3451876077</v>
       </c>
-      <c r="D6" t="n">
-        <v>147123.3451876078</v>
-      </c>
       <c r="E6" t="n">
-        <v>-431915.7796907817</v>
+        <v>-431982.9751810077</v>
       </c>
       <c r="F6" t="n">
-        <v>295461.6343026249</v>
+        <v>295394.4388123991</v>
       </c>
       <c r="G6" t="n">
-        <v>295461.6343026251</v>
+        <v>295394.4388123993</v>
       </c>
       <c r="H6" t="n">
-        <v>295461.6343026249</v>
+        <v>295394.4388123989</v>
       </c>
       <c r="I6" t="n">
-        <v>295461.6343026247</v>
+        <v>295394.4388123992</v>
       </c>
       <c r="J6" t="n">
-        <v>-21153.81329338677</v>
+        <v>-23312.34112752681</v>
       </c>
       <c r="K6" t="n">
-        <v>312899.5117799819</v>
+        <v>313121.6453081173</v>
       </c>
       <c r="L6" t="n">
-        <v>312899.5117799854</v>
+        <v>313121.6453081172</v>
       </c>
       <c r="M6" t="n">
-        <v>153667.0728942927</v>
+        <v>155894.1927112616</v>
       </c>
       <c r="N6" t="n">
-        <v>316796.5516351499</v>
+        <v>316760.6546532857</v>
       </c>
       <c r="O6" t="n">
-        <v>316796.5516351472</v>
+        <v>316760.6546532858</v>
       </c>
       <c r="P6" t="n">
-        <v>310925.6291579634</v>
+        <v>316760.6546532856</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184549</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184554</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184554</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.04104871639</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2624125912507</v>
+        <v>222.5738964663515</v>
       </c>
       <c r="K3" t="n">
-        <v>5.002220859751105e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.0019355318318</v>
+        <v>45.69045165673629</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.547473508864641e-12</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9.9344516252836</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573156</v>
+        <v>656.5249766664078</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377724</v>
+        <v>516.57937522868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>347.5522827329181</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>31.793065117894</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690364</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>138.3959031015157</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>30.38987441310772</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>155.6309576570397</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>316.1370567708855</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>133.9409297182295</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172485</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>119.2943230989726</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-3.56324392939135e-13</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.210499167247965e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.016253913301625e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.323196109755097e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.2624687967218</v>
+        <v>5.275781294712155</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442715</v>
+        <v>54.03059518447087</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856174</v>
+        <v>203.3945583643905</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357673</v>
+        <v>447.7753426620762</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010013</v>
+        <v>671.0991648672418</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386762</v>
+        <v>832.5578566652891</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023774</v>
+        <v>926.3810322651264</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710634</v>
+        <v>941.3708458687273</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736609</v>
+        <v>888.9097956194333</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545914</v>
+        <v>758.6639449062269</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719916</v>
+        <v>569.7250272893476</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520761</v>
+        <v>331.4047967539627</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052981</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764969</v>
+        <v>23.09473261760247</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377439</v>
+        <v>0.4220625035769723</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906388</v>
+        <v>2.822791850279246</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256959</v>
+        <v>27.26222655401272</v>
       </c>
       <c r="I27" t="n">
-        <v>96.9429909292331</v>
+        <v>97.18822817847406</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>266.6919265213388</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709013</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>612.9048708248864</v>
       </c>
       <c r="M27" t="n">
-        <v>713.426316685579</v>
+        <v>715.2310753975089</v>
       </c>
       <c r="N27" t="n">
-        <v>732.3085884219864</v>
+        <v>734.161113726794</v>
       </c>
       <c r="O27" t="n">
-        <v>492.2680634748135</v>
+        <v>188.0293137452641</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6692916021593</v>
+        <v>539.0294367432361</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.4176825483312</v>
+        <v>360.3269035549438</v>
       </c>
       <c r="R27" t="n">
-        <v>174.8184687381177</v>
+        <v>175.2607080375133</v>
       </c>
       <c r="S27" t="n">
-        <v>52.29981739940151</v>
+        <v>52.43212055233597</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279811</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412098</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250826</v>
+        <v>2.366533863550187</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613917</v>
+        <v>21.04063744138259</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827031</v>
+        <v>71.16812746021839</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022334</v>
+        <v>167.3139441529982</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409595</v>
+        <v>274.9482070561035</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790182</v>
+        <v>351.8390436772706</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793635</v>
+        <v>370.9649400835989</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661561</v>
+        <v>362.1442229558212</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589077</v>
+        <v>334.4988046407121</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197906</v>
+        <v>286.221513824288</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908669</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559144</v>
+        <v>106.407968082902</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614392</v>
+        <v>41.24223105841553</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879898</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591361</v>
+        <v>0.1290836652845558</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.26246879672182</v>
+        <v>5.275781294712155</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442735</v>
+        <v>54.03059518447087</v>
       </c>
       <c r="I29" t="n">
-        <v>202.8813282856182</v>
+        <v>203.3945583643905</v>
       </c>
       <c r="J29" t="n">
-        <v>446.645461035769</v>
+        <v>447.7753426620762</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010038</v>
+        <v>671.0991648672418</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386793</v>
+        <v>832.5578566652891</v>
       </c>
       <c r="M29" t="n">
-        <v>924.043474102381</v>
+        <v>926.3810322651264</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710669</v>
+        <v>941.3708458687273</v>
       </c>
       <c r="O29" t="n">
-        <v>886.6667894736643</v>
+        <v>888.9097956194333</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545942</v>
+        <v>758.6639449062269</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719939</v>
+        <v>569.7250272893476</v>
       </c>
       <c r="R29" t="n">
-        <v>330.5685555520773</v>
+        <v>331.4047967539627</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052986</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764978</v>
+        <v>23.09473261760247</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377455</v>
+        <v>0.4220625035769723</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906399</v>
+        <v>2.822791850279246</v>
       </c>
       <c r="H30" t="n">
-        <v>27.1934351625697</v>
+        <v>27.26222655401272</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923347</v>
+        <v>97.18822817847406</v>
       </c>
       <c r="J30" t="n">
-        <v>266.0189767651743</v>
+        <v>266.6919265213388</v>
       </c>
       <c r="K30" t="n">
-        <v>317.3020483068032</v>
+        <v>455.8189804900483</v>
       </c>
       <c r="L30" t="n">
-        <v>611.3583141339749</v>
+        <v>612.9048708248864</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855817</v>
+        <v>715.2310753975089</v>
       </c>
       <c r="N30" t="n">
-        <v>732.3085884219893</v>
+        <v>557.9990557099067</v>
       </c>
       <c r="O30" t="n">
-        <v>669.9192903105895</v>
+        <v>671.6139890442906</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375133</v>
       </c>
       <c r="S30" t="n">
-        <v>52.29981739940172</v>
+        <v>52.43212055233597</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279816</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250834</v>
+        <v>2.366533863550187</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613925</v>
+        <v>21.04063744138259</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827058</v>
+        <v>71.16812746021839</v>
       </c>
       <c r="J31" t="n">
-        <v>166.891757102234</v>
+        <v>167.3139441529982</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409605</v>
+        <v>274.9482070561035</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790196</v>
+        <v>351.8390436772706</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793649</v>
+        <v>370.9649400835989</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661575</v>
+        <v>362.1442229558212</v>
       </c>
       <c r="O31" t="n">
-        <v>333.654756258909</v>
+        <v>334.4988046407121</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197917</v>
+        <v>286.221513824288</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908676</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559148</v>
+        <v>106.407968082902</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614408</v>
+        <v>41.24223105841553</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879902</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591366</v>
+        <v>0.1290836652845558</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.26246879672182</v>
+        <v>5.275781294712155</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442735</v>
+        <v>54.03059518447087</v>
       </c>
       <c r="I32" t="n">
-        <v>202.8813282856182</v>
+        <v>203.3945583643905</v>
       </c>
       <c r="J32" t="n">
-        <v>446.645461035769</v>
+        <v>447.7753426620762</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010038</v>
+        <v>671.0991648672418</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386793</v>
+        <v>832.5578566652891</v>
       </c>
       <c r="M32" t="n">
-        <v>924.043474102381</v>
+        <v>926.3810322651264</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710669</v>
+        <v>941.3708458687273</v>
       </c>
       <c r="O32" t="n">
-        <v>886.6667894736643</v>
+        <v>888.9097956194333</v>
       </c>
       <c r="P32" t="n">
-        <v>756.7495910545942</v>
+        <v>758.6639449062269</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719939</v>
+        <v>569.7250272893476</v>
       </c>
       <c r="R32" t="n">
-        <v>330.5685555520773</v>
+        <v>331.4047967539627</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052986</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764978</v>
+        <v>23.09473261760247</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377455</v>
+        <v>0.4220625035769723</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906399</v>
+        <v>2.822791850279246</v>
       </c>
       <c r="H33" t="n">
-        <v>27.1934351625697</v>
+        <v>27.26222655401272</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923347</v>
+        <v>97.18822817847406</v>
       </c>
       <c r="J33" t="n">
-        <v>266.0189767651743</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>454.668802170903</v>
+        <v>455.8189804900483</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>612.9048708248864</v>
       </c>
       <c r="M33" t="n">
-        <v>616.0296482135973</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>732.3085884219893</v>
+        <v>734.161113726794</v>
       </c>
       <c r="O33" t="n">
-        <v>669.9192903105895</v>
+        <v>671.6139890442906</v>
       </c>
       <c r="P33" t="n">
-        <v>537.6692916021614</v>
+        <v>450.4185612586833</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>360.3269035549438</v>
       </c>
       <c r="R33" t="n">
-        <v>174.8184687381184</v>
+        <v>175.2607080375133</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940172</v>
+        <v>52.43212055233597</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279816</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250834</v>
+        <v>2.366533863550187</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613925</v>
+        <v>21.04063744138259</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827058</v>
+        <v>71.16812746021839</v>
       </c>
       <c r="J34" t="n">
-        <v>166.891757102234</v>
+        <v>167.3139441529982</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409605</v>
+        <v>274.9482070561035</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790196</v>
+        <v>351.8390436772706</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793649</v>
+        <v>370.9649400835989</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661575</v>
+        <v>362.1442229558212</v>
       </c>
       <c r="O34" t="n">
-        <v>333.654756258909</v>
+        <v>334.4988046407121</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197917</v>
+        <v>286.221513824288</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908676</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559148</v>
+        <v>106.407968082902</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614408</v>
+        <v>41.24223105841553</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879902</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591366</v>
+        <v>0.1290836652845558</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,10 +33728,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
@@ -33740,31 +33740,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>566.1593641743762</v>
+        <v>266.1552026179228</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M37" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33974,22 +33974,22 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>140.3328138609331</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>256.8217267553747</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
         <v>372.8719498286953</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377445</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122302</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704067</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874081</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830454</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364293</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293342</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229642</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086983</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687551</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148626</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987175</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854261</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665728</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901955</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540915</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.211381030882</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735827</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>471.688653684824</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504327</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927664</v>
+        <v>346.0352130058794</v>
       </c>
       <c r="O42" t="n">
-        <v>261.3317718850068</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982473</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286965</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862179</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821096</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013761</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291851</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548575</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284951</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273339</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900896</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640631</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265035</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416887</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465974</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282434</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561749</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860863</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851343</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551973</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704648</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>446.7255293589098</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704901</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262116</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116789</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>794.1893959229033</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>728.5192284577547</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>713.9299079303053</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>539.157696425514</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>93.75277736316544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3236387357559</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>850.3700767480321</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36367,16 +36367,16 @@
         <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>587.7576595966725</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>384.0473624437454</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.599556509081</v>
+        <v>266.7294381353899</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560207</v>
+        <v>451.0093138222613</v>
       </c>
       <c r="L26" t="n">
-        <v>621.2270089466087</v>
+        <v>596.791441695302</v>
       </c>
       <c r="M26" t="n">
-        <v>693.6972408751047</v>
+        <v>696.0347990378536</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744725</v>
+        <v>711.9577822721365</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519741</v>
+        <v>880.5483175430227</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993218</v>
+        <v>527.4309491509573</v>
       </c>
       <c r="Q26" t="n">
-        <v>558.2967280574469</v>
+        <v>347.4193374148981</v>
       </c>
       <c r="R26" t="n">
-        <v>180.6994376109264</v>
+        <v>181.535678812813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>139.8542998546721</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965423</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>474.3504910450122</v>
       </c>
       <c r="M27" t="n">
-        <v>571.2922827635607</v>
+        <v>573.0970414754906</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386532</v>
+        <v>602.8194016434608</v>
       </c>
       <c r="O27" t="n">
-        <v>349.6718190303691</v>
+        <v>45.43306930081966</v>
       </c>
       <c r="P27" t="n">
-        <v>403.6948841878291</v>
+        <v>405.0550293289059</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.4359084623097</v>
+        <v>220.3451294689223</v>
       </c>
       <c r="R27" t="n">
-        <v>29.13896477415378</v>
+        <v>29.58120407354932</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556058</v>
+        <v>73.95476403632546</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150766</v>
+        <v>252.6787152302207</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393344</v>
+        <v>379.4290689375867</v>
       </c>
       <c r="M28" t="n">
-        <v>409.612752841204</v>
+        <v>410.5488170454395</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453847</v>
+        <v>406.2763953350498</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729474</v>
+        <v>359.0839325547518</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846841</v>
+        <v>283.5000730891815</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391725</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>265.5995565090827</v>
+        <v>266.7294381353899</v>
       </c>
       <c r="K29" t="n">
-        <v>753.8837039668052</v>
+        <v>451.0093138222613</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686921</v>
+        <v>596.791441695302</v>
       </c>
       <c r="M29" t="n">
-        <v>693.6972408751083</v>
+        <v>696.0347990378536</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744759</v>
+        <v>711.9577822721365</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519775</v>
+        <v>733.9497467561004</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993248</v>
+        <v>527.4309491509573</v>
       </c>
       <c r="Q29" t="n">
-        <v>345.9817373975444</v>
+        <v>559.7343280748028</v>
       </c>
       <c r="R29" t="n">
-        <v>114.9830177379452</v>
+        <v>115.8192589398305</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.1813500985076</v>
+        <v>139.8542998546721</v>
       </c>
       <c r="K30" t="n">
-        <v>179.4606093324442</v>
+        <v>317.9775415156893</v>
       </c>
       <c r="L30" t="n">
-        <v>472.8039343541007</v>
+        <v>474.3504910450122</v>
       </c>
       <c r="M30" t="n">
-        <v>571.2922827635634</v>
+        <v>573.0970414754906</v>
       </c>
       <c r="N30" t="n">
-        <v>600.966876338656</v>
+        <v>426.6573436265734</v>
       </c>
       <c r="O30" t="n">
-        <v>527.3230458661451</v>
+        <v>529.0177445998462</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.58120407354932</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556121</v>
+        <v>73.95476403632546</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150777</v>
+        <v>252.6787152302207</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393358</v>
+        <v>379.4290689375867</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412055</v>
+        <v>410.5488170454395</v>
       </c>
       <c r="N31" t="n">
-        <v>405.362588645386</v>
+        <v>406.2763953350498</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729487</v>
+        <v>359.0839325547518</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846852</v>
+        <v>283.5000730891815</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391732</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.5995565090827</v>
+        <v>266.7294381353899</v>
       </c>
       <c r="K32" t="n">
-        <v>449.3159141560232</v>
+        <v>451.0093138222613</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686921</v>
+        <v>596.791441695302</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751083</v>
+        <v>696.0347990378536</v>
       </c>
       <c r="N32" t="n">
-        <v>1014.150189785257</v>
+        <v>711.9577822721365</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519775</v>
+        <v>946.2647374160047</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993248</v>
+        <v>527.4309491509573</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975444</v>
+        <v>347.4193374148981</v>
       </c>
       <c r="R32" t="n">
-        <v>114.9830177379452</v>
+        <v>115.8192589398305</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.1813500985076</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>316.827363196544</v>
+        <v>317.9775415156893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>474.3504910450122</v>
       </c>
       <c r="M33" t="n">
-        <v>473.895614291579</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>600.966876338656</v>
+        <v>602.8194016434608</v>
       </c>
       <c r="O33" t="n">
-        <v>527.3230458661451</v>
+        <v>529.0177445998462</v>
       </c>
       <c r="P33" t="n">
-        <v>403.6948841878311</v>
+        <v>316.444153844353</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>220.3451294689223</v>
       </c>
       <c r="R33" t="n">
-        <v>29.13896477415446</v>
+        <v>29.58120407354932</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556121</v>
+        <v>73.95476403632546</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150777</v>
+        <v>252.6787152302207</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393358</v>
+        <v>379.4290689375867</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412055</v>
+        <v>410.5488170454395</v>
       </c>
       <c r="N34" t="n">
-        <v>405.362588645386</v>
+        <v>406.2763953350498</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729487</v>
+        <v>359.0839325547518</v>
       </c>
       <c r="P34" t="n">
-        <v>282.7778438846852</v>
+        <v>283.5000730891815</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391732</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>796.0449487554608</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
@@ -37388,25 +37388,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>427.604984394502</v>
+        <v>127.6008228380486</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066045</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37476,7 +37476,7 @@
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
         <v>293.4650856931359</v>
@@ -37549,7 +37549,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
         <v>744.73230092637</v>
@@ -37564,7 +37564,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>2.491374886574134</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>122.8473193410445</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
         <v>232.8901757426738</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607218</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380648</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066442</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020615</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263732</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870116</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134855</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404131</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>178.6700086136502</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
-        <v>149.139375506916</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>333.847214710465</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284144</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094331</v>
+        <v>214.6935009225461</v>
       </c>
       <c r="O42" t="n">
-        <v>118.7355274405624</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>423.821735783917</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.890175742675</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066109</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642068</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243793</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883441</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209173</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606371</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931369</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044805</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>308.1711495790356</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561599</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
